--- a/DemoWebShop1/src/test/resources/testData/testData.xlsx
+++ b/DemoWebShop1/src/test/resources/testData/testData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9215" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="5" r:id="rId1"/>
     <sheet name="result" sheetId="6" r:id="rId2"/>
     <sheet name="testData" sheetId="7" r:id="rId3"/>
+    <sheet name="data" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>gender</t>
   </si>
@@ -139,6 +140,18 @@
   </si>
   <si>
     <t>TC_020</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Naren</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -146,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -198,14 +211,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,24 +256,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,54 +294,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,181 +338,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,6 +523,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -569,17 +593,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -613,145 +626,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,7 +1196,7 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1457,4 +1470,56 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.CONCAT(A2,B2)</f>
+        <v>NarenS</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="str">
+        <f>_xlfn.CONCAT(A3,B3)</f>
+        <v>HariK</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>